--- a/Final_P&L_auto.xlsx
+++ b/Final_P&L_auto.xlsx
@@ -740,7 +740,7 @@
       </c>
       <c r="F1" s="2" t="inlineStr">
         <is>
-          <t>CMP ON DEC 15 2024</t>
+          <t>CMP ON Jan 05 2025</t>
         </is>
       </c>
       <c r="G1" s="2" t="inlineStr">
@@ -803,7 +803,7 @@
         <v>130298.22</v>
       </c>
       <c r="F2" s="6" t="n">
-        <v>2402.25</v>
+        <v>2335.95</v>
       </c>
       <c r="G2" s="6">
         <f>F2*D2</f>
@@ -847,7 +847,7 @@
         <v>154217.556</v>
       </c>
       <c r="F3" s="10" t="n">
-        <v>4846.5</v>
+        <v>4834.1</v>
       </c>
       <c r="G3" s="10">
         <f>F3*D3</f>
@@ -891,7 +891,7 @@
         <v>63771.33</v>
       </c>
       <c r="F4" s="6" t="n">
-        <v>743.4</v>
+        <v>738.1</v>
       </c>
       <c r="G4" s="6">
         <f>F4*D4</f>
@@ -935,7 +935,7 @@
         <v>94863.6465</v>
       </c>
       <c r="F5" s="10" t="n">
-        <v>1954.4</v>
+        <v>1946.65</v>
       </c>
       <c r="G5" s="10">
         <f>F5*D5</f>
@@ -979,7 +979,7 @@
         <v>103983.75</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>470.1</v>
+        <v>481.6</v>
       </c>
       <c r="G6" s="6">
         <f>F6*D6</f>
@@ -1023,7 +1023,7 @@
         <v>77361.46000000001</v>
       </c>
       <c r="F7" s="10" t="n">
-        <v>3084.85</v>
+        <v>3190.55</v>
       </c>
       <c r="G7" s="10">
         <f>F7*D7</f>
@@ -1073,7 +1073,7 @@
         <v>25459.26</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>162.58</v>
+        <v>152.37</v>
       </c>
       <c r="G8" s="6">
         <f>F8*D8</f>
@@ -1117,7 +1117,7 @@
         <v>75284.60000000001</v>
       </c>
       <c r="F9" s="10" t="n">
-        <v>1084.75</v>
+        <v>1027.9</v>
       </c>
       <c r="G9" s="10">
         <f>F9*D9</f>
@@ -1161,7 +1161,7 @@
         <v>117272.972</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>7357</v>
+        <v>6647.55</v>
       </c>
       <c r="G10" s="6">
         <f>F10*D10</f>
@@ -1205,7 +1205,7 @@
         <v>65387.7</v>
       </c>
       <c r="F11" s="10" t="n">
-        <v>425.5</v>
+        <v>396.65</v>
       </c>
       <c r="G11" s="10">
         <f>F11*D11</f>
@@ -1249,7 +1249,7 @@
         <v>87081.3</v>
       </c>
       <c r="F12" s="6" t="n">
-        <v>147.79</v>
+        <v>138.36</v>
       </c>
       <c r="G12" s="6">
         <f>F12*D12</f>
@@ -1293,7 +1293,7 @@
         <v>148141.672</v>
       </c>
       <c r="F13" s="10" t="n">
-        <v>1980.05</v>
+        <v>1938.75</v>
       </c>
       <c r="G13" s="10">
         <f>F13*D13</f>
@@ -1337,7 +1337,7 @@
         <v>96807.027</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>309.2</v>
+        <v>294.45</v>
       </c>
       <c r="G14" s="6">
         <f>F14*D14</f>
@@ -1381,7 +1381,7 @@
         <v>50016.4648</v>
       </c>
       <c r="F15" s="10" t="n">
-        <v>1243.15</v>
+        <v>1199.55</v>
       </c>
       <c r="G15" s="10">
         <f>F15*D15</f>
@@ -1425,7 +1425,7 @@
         <v>50108.1175</v>
       </c>
       <c r="F16" s="6" t="n">
-        <v>122.19</v>
+        <v>112.94</v>
       </c>
       <c r="G16" s="6">
         <f>F16*D16</f>
@@ -1469,7 +1469,7 @@
         <v>61668.4541</v>
       </c>
       <c r="F17" s="10" t="n">
-        <v>1269.95</v>
+        <v>1352.65</v>
       </c>
       <c r="G17" s="10">
         <f>F17*D17</f>
@@ -1513,7 +1513,7 @@
         <v>50029.1006</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>2685.15</v>
+        <v>2510</v>
       </c>
       <c r="G18" s="6">
         <f>F18*D18</f>
@@ -1557,7 +1557,7 @@
         <v>50707.1014</v>
       </c>
       <c r="F19" s="10" t="n">
-        <v>1768.8</v>
+        <v>1700</v>
       </c>
       <c r="G19" s="10">
         <f>F19*D19</f>
@@ -1601,7 +1601,7 @@
         <v>50887.85</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>867.65</v>
+        <v>872.45</v>
       </c>
       <c r="G20" s="6">
         <f>F20*D20</f>
@@ -1645,7 +1645,7 @@
         <v>49662.4</v>
       </c>
       <c r="F21" s="10" t="n">
-        <v>7968.95</v>
+        <v>6609.7</v>
       </c>
       <c r="G21" s="10">
         <f>F21*D21</f>
@@ -1695,7 +1695,7 @@
         <v>49538.5134</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>842.5</v>
+        <v>796.3</v>
       </c>
       <c r="G22" s="6">
         <f>F22*D22</f>
@@ -1739,7 +1739,7 @@
         <v>30832.452</v>
       </c>
       <c r="F23" s="10" t="n">
-        <v>860.95</v>
+        <v>793.4</v>
       </c>
       <c r="G23" s="10">
         <f>F23*D23</f>
@@ -1783,7 +1783,7 @@
         <v>49758.3888</v>
       </c>
       <c r="F24" s="6" t="n">
-        <v>7000.35</v>
+        <v>7307.7</v>
       </c>
       <c r="G24" s="6">
         <f>F24*D24</f>
@@ -1833,7 +1833,7 @@
         <v>69625.71000000001</v>
       </c>
       <c r="F25" s="10" t="n">
-        <v>923.9</v>
+        <v>908.4</v>
       </c>
       <c r="G25" s="10">
         <f>F25*D25</f>
@@ -1877,7 +1877,7 @@
         <v>125359.9971</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>4415.2</v>
+        <v>4099.9</v>
       </c>
       <c r="G26" s="6">
         <f>F26*D26</f>
